--- a/Yearly-Report-2022-RO874232.xlsx
+++ b/Yearly-Report-2022-RO874232.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhashimk\Documents\UiPath\Generate Yearly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF5E643-4D61-4357-8F0B-E26613B2C4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA59BFCE-B3A0-4E56-A696-9E74DF75B933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33870" yWindow="2790" windowWidth="21600" windowHeight="11235" xr2:uid="{6812995D-E3CE-472C-A135-CC8E23294E0E}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{6812995D-E3CE-472C-A135-CC8E23294E0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>InvoiceNumber</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Various paper supplies</t>
+  </si>
+  <si>
+    <t>RON</t>
   </si>
 </sst>
 </file>
@@ -467,140 +470,140 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>522163</v>
+        <v>165046</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>266526</v>
+        <v>26401</v>
       </c>
       <c r="D2">
-        <v>53305.2</v>
+        <v>5280.2</v>
       </c>
       <c r="E2">
-        <v>319831</v>
+        <v>31681.200000000001</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1">
-        <v>42757</v>
+        <v>43025</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>687950</v>
+        <v>268700</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3">
-        <v>95813</v>
+        <v>215362</v>
       </c>
       <c r="D3">
-        <v>19162.599999999999</v>
+        <v>43072.4</v>
       </c>
       <c r="E3">
-        <v>114976</v>
+        <v>258434</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1">
-        <v>43021</v>
+        <v>43054</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>472465</v>
+        <v>586637</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>101909</v>
+        <v>292410</v>
       </c>
       <c r="D4">
-        <v>20381.8</v>
+        <v>58482</v>
       </c>
       <c r="E4">
-        <v>122291</v>
+        <v>350892</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="1">
-        <v>43025</v>
+        <v>42799</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>283161</v>
+        <v>224867</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>142130</v>
+        <v>29003</v>
       </c>
       <c r="D5">
-        <v>28426</v>
+        <v>5800.6</v>
       </c>
       <c r="E5">
-        <v>170556</v>
+        <v>34803.599999999999</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="1">
-        <v>43042</v>
+        <v>42840</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>993537</v>
+        <v>388009</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>73794</v>
+        <v>45420</v>
       </c>
       <c r="D6">
-        <v>14758.8</v>
+        <v>9084</v>
       </c>
       <c r="E6">
-        <v>88552.8</v>
+        <v>54504</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1">
-        <v>43058</v>
+        <v>42856</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>134726</v>
+        <v>709809</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>101254</v>
+        <v>249145</v>
       </c>
       <c r="D7">
-        <v>20250.8</v>
+        <v>49829</v>
       </c>
       <c r="E7">
-        <v>121505</v>
+        <v>298974</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1">
-        <v>43080</v>
+        <v>42954</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
